--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed4/result_data_RandomForest.xlsx
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.3425</v>
+        <v>-7.343399999999995</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.879399999999995</v>
+        <v>-8.907199999999996</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.398600000000003</v>
+        <v>-7.6062</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.178399999999996</v>
+        <v>-9.014199999999995</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.817199999999999</v>
+        <v>-8.070400000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.134999999999998</v>
+        <v>-7.072699999999998</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.495799999999997</v>
+        <v>-7.444200000000002</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.405300000000006</v>
+        <v>-7.570200000000005</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.264799999999994</v>
+        <v>-8.315299999999993</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.921699999999998</v>
+        <v>-9.0831</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.395299999999999</v>
+        <v>-6.503199999999997</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
